--- a/WBSのひな型.xlsx
+++ b/WBSのひな型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DE6FAB-B9BB-4FB3-81D1-A06F1AC76E04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC2350F-24BB-462D-B8DD-21897A7DFBD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8580" yWindow="1668" windowWidth="21600" windowHeight="11292" xr2:uid="{3B4AC93D-F124-47D8-88BE-368F80A06834}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>タスク</t>
     <phoneticPr fontId="1"/>
@@ -281,16 +281,6 @@
     <rPh sb="2" eb="4">
       <t>シュウカン</t>
     </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(1週間: 40時間)</t>
-    <rPh sb="2" eb="4">
-      <t>シュウカン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -415,7 +405,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>43日</t>
+    <t>(1週間2日: 56時間)</t>
+    <rPh sb="2" eb="4">
+      <t>シュウカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>45日</t>
     <rPh sb="2" eb="3">
       <t>ニチ</t>
     </rPh>
@@ -618,23 +621,23 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -952,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE82B5B-7509-4E2A-A973-D9D8AB997021}">
   <dimension ref="B2:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -968,7 +971,7 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -992,8 +995,8 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B3" s="9" t="s">
-        <v>41</v>
+      <c r="B3" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
@@ -1002,7 +1005,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>21</v>
@@ -1017,19 +1020,19 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B4" s="9"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B5" s="9"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1037,35 +1040,35 @@
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B6" s="9"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B7" s="9"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1073,23 +1076,23 @@
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B8" s="9"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B9" s="9"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1097,13 +1100,13 @@
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B10" s="9"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>15</v>
@@ -1113,7 +1116,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B11" s="9"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1121,49 +1124,49 @@
         <v>16</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B12" s="9"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B13" s="9"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="4"/>
       <c r="D13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B14" s="13"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>44</v>
+      <c r="E14" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="2" t="s">
         <v>45</v>
       </c>
